--- a/data/event-jp.xlsx
+++ b/data/event-jp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhuo En Tan\Desktop\ML\blue-archive-forecasting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F6C4C1-D255-4E91-A419-3379CFB1D6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5FE37C-B0AC-4C30-BB88-8707D0F9F0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="126">
   <si>
     <t>Name (EN)</t>
   </si>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2133,7 +2133,9 @@
       <c r="D85" s="4">
         <v>45917</v>
       </c>
-      <c r="E85" s="3"/>
+      <c r="E85" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
